--- a/maitreiya/checklist.xlsx
+++ b/maitreiya/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/maitreiya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A60EF5-B1A8-2F42-8660-00DF4E326978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC93C49-CF1C-4347-8955-CA66C5941CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{4A994820-D532-5547-8A50-DF87A48C1CED}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>rulebook</t>
   </si>
   <si>
-    <t>meitreiya2.jpg</t>
-  </si>
-  <si>
     <t>マイトレーヤ SWORD SYSTEM</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Shinkigensha</t>
+  </si>
+  <si>
+    <t>maitreiya2.jpg</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,16 +464,16 @@
         <v>1995</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
